--- a/水池协议测试结果.xlsx
+++ b/水池协议测试结果.xlsx
@@ -9,15 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{9E52F74E-1C70-4778-A7CB-DCB7ADD44233}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35140" windowHeight="17540" activeTab="2" xr2:uid="{9E52F74E-1C70-4778-A7CB-DCB7ADD44233}"/>
   </bookViews>
   <sheets>
     <sheet name="发送个数" sheetId="1" r:id="rId1"/>
     <sheet name="发送密度" sheetId="2" r:id="rId2"/>
     <sheet name="发送密度（多次）" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'发送密度（多次）'!$A$1:$N$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">('发送密度（多次）'!$D$2,'发送密度（多次）'!$D$5,'发送密度（多次）'!$D$8,'发送密度（多次）'!$D$11,'发送密度（多次）'!$D$14,'发送密度（多次）'!$D$17,'发送密度（多次）'!$D$20,'发送密度（多次）'!$D$23,'发送密度（多次）'!$D$26,'发送密度（多次）'!$D$29,'发送密度（多次）'!$D$32,'发送密度（多次）'!$D$35)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">('发送密度（多次）'!$H$2,'发送密度（多次）'!$H$5,'发送密度（多次）'!$H$8,'发送密度（多次）'!$H$11,'发送密度（多次）'!$H$14,'发送密度（多次）'!$H$17,'发送密度（多次）'!$H$20,'发送密度（多次）'!$H$23,'发送密度（多次）'!$H$26,'发送密度（多次）'!$H$29,'发送密度（多次）'!$H$32,'发送密度（多次）'!$H$35)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">('发送密度（多次）'!$H$3,'发送密度（多次）'!$H$6,'发送密度（多次）'!$H$9,'发送密度（多次）'!$H$12,'发送密度（多次）'!$H$15,'发送密度（多次）'!$H$18,'发送密度（多次）'!$H$21,'发送密度（多次）'!$H$24,'发送密度（多次）'!$H$27,'发送密度（多次）'!$H$30,'发送密度（多次）'!$H$33,'发送密度（多次）'!$H$36)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">('发送密度（多次）'!$H$4,'发送密度（多次）'!$H$7,'发送密度（多次）'!$H$10,'发送密度（多次）'!$H$13,'发送密度（多次）'!$H$16,'发送密度（多次）'!$H$19,'发送密度（多次）'!$H$22,'发送密度（多次）'!$H$25,'发送密度（多次）'!$H$28,'发送密度（多次）'!$H$31,'发送密度（多次）'!$H$34,'发送密度（多次）'!$H$37)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">([1]工作表1!$D$2,[1]工作表1!$D$5,[1]工作表1!$D$8,[1]工作表1!$D$11,[1]工作表1!$D$14,[1]工作表1!$D$17,[1]工作表1!$D$20,[1]工作表1!$D$23,[1]工作表1!$D$26,[1]工作表1!$D$29,[1]工作表1!$D$32,[1]工作表1!$D$35)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">([1]工作表1!$K$2,[1]工作表1!$K$5,[1]工作表1!$K$8,[1]工作表1!$K$11,[1]工作表1!$K$14,[1]工作表1!$K$17,[1]工作表1!$K$20,[1]工作表1!$K$23,[1]工作表1!$K$26,[1]工作表1!$K$29,[1]工作表1!$K$32,[1]工作表1!$K$35)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">([1]工作表1!$K$3,[1]工作表1!$K$6,[1]工作表1!$K$9,[1]工作表1!$K$12,[1]工作表1!$K$15,[1]工作表1!$K$18,[1]工作表1!$K$21,[1]工作表1!$K$24,[1]工作表1!$K$27,[1]工作表1!$K$30,[1]工作表1!$K$33,[1]工作表1!$K$36)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">([1]工作表1!$K$4,[1]工作表1!$K$7,[1]工作表1!$K$10,[1]工作表1!$K$13,[1]工作表1!$K$16,[1]工作表1!$K$19,[1]工作表1!$K$22,[1]工作表1!$K$25,[1]工作表1!$K$28,[1]工作表1!$K$31,[1]工作表1!$K$34,[1]工作表1!$K$37)</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="141">
   <si>
     <t>协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3143,7 +3154,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3165,21 +3175,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-Hans" altLang="en-US"/>
+              <a:rPr lang="zh-Hans" sz="1200"/>
               <a:t>发送数据频率与网络吞吐量（</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-Hans"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>bit/s</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-Hans" altLang="en-US"/>
+              <a:rPr lang="zh-Hans" sz="1200"/>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10439163498098859"/>
+          <c:y val="3.5369774919614148E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3188,10 +3206,40 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8129828841817308E-2"/>
+          <c:y val="0.12630482777983384"/>
+          <c:w val="0.94465577366209508"/>
+          <c:h val="0.74468306129480988"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3201,9 +3249,29 @@
           <c:tx>
             <c:v>Aloha</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3289,7 +3357,7 @@
                   <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.26</c:v>
+                  <c:v>7.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,9 +3375,29 @@
           <c:tx>
             <c:v>Maca</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3413,9 +3501,27 @@
           <c:tx>
             <c:v>Dbmac</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3514,6 +3620,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3536,21 +3643,58 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-Hans" altLang="en-US"/>
+                  <a:rPr lang="zh-Hans"/>
                   <a:t>发送频率区间</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3574,7 +3718,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3634,7 +3778,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3653,9 +3797,26 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63472635549833833"/>
+          <c:y val="3.4612502215358137E-2"/>
+          <c:w val="0.31654037304272326"/>
+          <c:h val="5.4245132541712031E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3669,7 +3830,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3690,6 +3851,21 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3743,21 +3919,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-Hans" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>发送数据频率与时延（</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-Hans"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>s</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-Hans" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10439163498098859"/>
+          <c:y val="3.5369774919614148E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3766,10 +3949,40 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8129828841817308E-2"/>
+          <c:y val="0.12630482777983384"/>
+          <c:w val="0.94465577366209508"/>
+          <c:h val="0.74468306129480988"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3779,9 +3992,29 @@
           <c:tx>
             <c:v>Aloha</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3875,7 +4108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1B5-E94C-A723-0B7491D270EB}"/>
+              <c16:uniqueId val="{00000000-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3885,9 +4118,29 @@
           <c:tx>
             <c:v>Maca</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3981,7 +4234,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1B5-E94C-A723-0B7491D270EB}"/>
+              <c16:uniqueId val="{00000001-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3991,9 +4244,27 @@
           <c:tx>
             <c:v>Dbmac</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4087,7 +4358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C1B5-E94C-A723-0B7491D270EB}"/>
+              <c16:uniqueId val="{00000002-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4114,11 +4385,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-Hans" altLang="en-US"/>
@@ -4129,6 +4410,33 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4152,7 +4460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4212,7 +4520,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4231,9 +4539,26 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63472635549833833"/>
+          <c:y val="3.4612502215358137E-2"/>
+          <c:w val="0.31654037304272326"/>
+          <c:h val="5.4245132541712031E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4247,7 +4572,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4268,6 +4593,21 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4321,13 +4661,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-Hans" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>发送数据频率与发送成功率）</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10439163498098859"/>
+          <c:y val="3.5369774919614148E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4339,7 +4686,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8129828841817308E-2"/>
+          <c:y val="0.12630482777983384"/>
+          <c:w val="0.94465577366209508"/>
+          <c:h val="0.74468306129480988"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4349,9 +4706,29 @@
           <c:tx>
             <c:v>Aloha</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4445,7 +4822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9164-B742-8B04-7D2BF8EA778B}"/>
+              <c16:uniqueId val="{00000000-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4455,9 +4832,29 @@
           <c:tx>
             <c:v>Maca</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4551,7 +4948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9164-B742-8B04-7D2BF8EA778B}"/>
+              <c16:uniqueId val="{00000001-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4561,9 +4958,27 @@
           <c:tx>
             <c:v>Dbmac</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4657,7 +5072,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9164-B742-8B04-7D2BF8EA778B}"/>
+              <c16:uniqueId val="{00000002-4A38-8945-B463-ABB747CE9359}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4684,21 +5099,37 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-Hans" altLang="en-US"/>
-                  <a:t>发送频率区间</a:t>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>标题</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4722,7 +5153,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4748,7 +5179,7 @@
         <c:axId val="1770537248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4782,7 +5213,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4801,9 +5232,26 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63472635549833833"/>
+          <c:y val="3.4612502215358137E-2"/>
+          <c:w val="0.31654037304272326"/>
+          <c:h val="5.4245132541712031E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4817,7 +5265,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4838,6 +5286,21 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -4854,6 +5317,1118 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5059,15 +6634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5171,6 +6746,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6326,292 +7914,6 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19426005-8715-4CCF-BC27-BEFDF68A9F58}">
   <dimension ref="A1:N44"/>
@@ -7816,8 +9118,8 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9542,12 +10844,36 @@
       <c r="D42" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="32"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="E42">
+        <v>7.2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.6583</v>
+      </c>
+      <c r="G42">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H42">
+        <v>7.2</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.6583</v>
+      </c>
+      <c r="J42" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="K42" s="32">
+        <v>40.99</v>
+      </c>
+      <c r="L42" s="8">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
@@ -9562,12 +10888,36 @@
       <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="32"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="G43">
+        <v>2.21</v>
+      </c>
+      <c r="H43">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="J43" s="32">
+        <v>1</v>
+      </c>
+      <c r="K43" s="32">
+        <v>140.11000000000001</v>
+      </c>
+      <c r="L43" s="8">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
@@ -9793,8 +11143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7F4BD-AFF4-BF46-992D-C46E55825CA0}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11312,7 +12662,7 @@
         <v>137</v>
       </c>
       <c r="E35" s="38">
-        <v>7.62</v>
+        <v>7.82</v>
       </c>
       <c r="F35" s="42">
         <v>0.40889999999999999</v>
@@ -11321,7 +12671,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H35" s="38">
-        <v>7.26</v>
+        <v>7.62</v>
       </c>
       <c r="I35" s="38">
         <v>64.17</v>
